--- a/pred_ohlcv/54_21/2019-10-26 CMT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 CMT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-191782.5089</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-91686.94880000003</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-89807.94880000003</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-89807.94880000003</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-102265.7794</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-89600.77940000003</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-89600.77940000003</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-89600.77940000003</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-76865.64010000003</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-75663.28120000003</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-77095.34300000002</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-77095.34300000002</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-85695.34300000002</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-85695.34300000002</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-337221.134</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-295818.3446</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-305461.2180000001</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-283885.1342333334</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-283885.1342333334</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-283885.1342333334</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-283885.1342333334</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-255802.2884333334</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-259802.2884333334</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-259802.2884333334</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-272133.2884333334</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-157241.7013820644</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-157231.7013820644</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-163017.7013820644</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-162819.9065102695</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-162936.9065102695</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-162936.9065102695</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-354461.2863988659</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-356403.4521988659</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-356341.4521988659</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-370356.4521988659</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-227816.715898866</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-228724.7303988659</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-228724.7303988659</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-109889.3836936027</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-66687.01709360274</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-66687.01709360274</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-66687.01709360274</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-140324.2517936028</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-140324.2517936028</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-212256.4479936028</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-358390.8763936028</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-358380.8763936028</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-384180.8763936028</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-383310.3106936028</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-424714.5009936029</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-425112.9730936029</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-344820.5217936028</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-361848.1230936028</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-410186.4489936028</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-436330.7110936028</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-411593.1734936028</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-26 CMT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 CMT ohlcv.xlsx
@@ -1510,7 +1510,7 @@
         <v>-91686.94880000003</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-89807.94880000003</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-89807.94880000003</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-102265.7794</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-89600.77940000003</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-89600.77940000003</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-89600.77940000003</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-76865.64010000003</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-75663.28120000003</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-77095.34300000002</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-77095.34300000002</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-85695.34300000002</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-85695.34300000002</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-337221.134</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-295818.3446</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-305461.2180000001</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-283885.1342333334</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-283885.1342333334</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-283885.1342333334</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-283885.1342333334</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-255802.2884333334</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-259802.2884333334</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-259802.2884333334</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-272133.2884333334</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-157241.7013820644</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-157231.7013820644</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-163017.7013820644</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-162819.9065102695</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-162936.9065102695</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-162936.9065102695</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-66687.01709360274</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-66687.01709360274</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-66687.01709360274</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-140324.2517936028</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-140324.2517936028</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-212256.4479936028</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-358390.8763936028</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-361848.1230936028</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-436330.7110936028</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-411593.1734936028</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
